--- a/estate-taxes_worldwide_data.xlsx
+++ b/estate-taxes_worldwide_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danneidle/PycharmProjects/estate_taxes_worldwide/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danneidle/Coding/tax_plotting/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D4A1265-F43E-4C40-B8DC-7D8AAC4B3A3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B3CF41-F9FC-A945-92BA-1A16E046D06F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3260" yWindow="2160" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{4FD5AC8A-C889-CB44-B670-55F4DB9730DA}"/>
+    <workbookView xWindow="3260" yWindow="2160" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{4FD5AC8A-C889-CB44-B670-55F4DB9730DA}"/>
   </bookViews>
   <sheets>
     <sheet name="IHT bands" sheetId="4" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="92">
   <si>
     <t>Japan</t>
   </si>
@@ -488,7 +488,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -844,8 +844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{563D94CF-7012-BE49-B0C7-6094E390F06A}">
   <dimension ref="A1:G524"/>
   <sheetViews>
-    <sheetView topLeftCell="A207" workbookViewId="0">
-      <selection activeCell="D217" sqref="D217"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D436" sqref="D436"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13571,8 +13571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3823919-87CC-F040-AB19-FB96CF661224}">
   <dimension ref="A1:AO22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14473,7 +14473,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="15">
-        <v>18.925795967178065</v>
+        <v>17.573953398093916</v>
       </c>
       <c r="I21" s="16">
         <v>0.4</v>
@@ -14512,8 +14512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52916C50-B2EF-CB47-AE1B-07544A717476}">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15081,9 +15081,6 @@
       </c>
       <c r="C38" s="19">
         <v>36986.555345622997</v>
-      </c>
-      <c r="D38" t="s">
-        <v>91</v>
       </c>
       <c r="F38" s="19"/>
       <c r="G38" s="19"/>
